--- a/INTLINE/data/534/MOCI/Merchandise_Trade_Exports.xlsx
+++ b/INTLINE/data/534/MOCI/Merchandise_Trade_Exports.xlsx
@@ -1,37 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MOC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MOC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>EU Countries</t>
+  </si>
+  <si>
+    <t>European Free Trade Associatipn (EFTA)</t>
+  </si>
+  <si>
+    <t>Other European Countries</t>
+  </si>
+  <si>
+    <t>Southern African Customs Union (SACU)</t>
+  </si>
+  <si>
+    <t>Other South African Countries</t>
+  </si>
+  <si>
+    <t>West Africa</t>
+  </si>
+  <si>
+    <t>Central Africa</t>
+  </si>
+  <si>
+    <t>East Africa</t>
+  </si>
+  <si>
+    <t>North Africa</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t>East Asia (Oceania)</t>
+  </si>
+  <si>
+    <t>ASEAN</t>
+  </si>
+  <si>
+    <t>West Asia- GCC</t>
+  </si>
+  <si>
+    <t>Other West Asia</t>
+  </si>
+  <si>
+    <t>NE Asia</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>CARs Countries</t>
+  </si>
+  <si>
+    <t>Other CIS Countries</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
+  <si>
+    <t>India's Total Export</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +120,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +139,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,240 +436,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>EU Countries</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>41359.93</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>European Free Trade Associatipn (EFTA)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>1598.67</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Other European Countries</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>12306.23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Southern African Customs Union (SACU)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>4222.11</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Other South African Countries</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>1935.52</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>West Africa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>9450.17</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Central Africa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>1532.86</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>East Africa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>5785.06</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>North Africa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>4807.63</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>57670.58</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Latin America</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>10103.87</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>East Asia (Oceania)</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>4666.84</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>ASEAN</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>31485.58</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>West Asia- GCC</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>27758.72</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Other West Asia</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>7706.23</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>NE Asia</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>42119.58</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>South Asia</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>22077.79</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>CARs Countries</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>658.52</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Other CIS Countries</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>3400.34</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Unspecified</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>1162.24</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>India's Total Export</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>291808.48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/534/MOCI/Merchandise_Trade_Exports.xlsx
+++ b/INTLINE/data/534/MOCI/Merchandise_Trade_Exports.xlsx
@@ -1,111 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MOC" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MOC" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>EU Countries</t>
-  </si>
-  <si>
-    <t>European Free Trade Associatipn (EFTA)</t>
-  </si>
-  <si>
-    <t>Other European Countries</t>
-  </si>
-  <si>
-    <t>Southern African Customs Union (SACU)</t>
-  </si>
-  <si>
-    <t>Other South African Countries</t>
-  </si>
-  <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
-  </si>
-  <si>
-    <t>East Africa</t>
-  </si>
-  <si>
-    <t>North Africa</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>Latin America</t>
-  </si>
-  <si>
-    <t>East Asia (Oceania)</t>
-  </si>
-  <si>
-    <t>ASEAN</t>
-  </si>
-  <si>
-    <t>West Asia- GCC</t>
-  </si>
-  <si>
-    <t>Other West Asia</t>
-  </si>
-  <si>
-    <t>NE Asia</t>
-  </si>
-  <si>
-    <t>South Asia</t>
-  </si>
-  <si>
-    <t>CARs Countries</t>
-  </si>
-  <si>
-    <t>Other CIS Countries</t>
-  </si>
-  <si>
-    <t>Unspecified</t>
-  </si>
-  <si>
-    <t>India's Total Export</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -139,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -436,190 +353,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EU Countries</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>41359.93</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>European Free Trade Associatipn (EFTA)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1598.67</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Other European Countries</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>12306.23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Southern African Customs Union (SACU)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>4222.11</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Other South African Countries</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1935.52</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>West Africa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>9450.17</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Central Africa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>1532.86</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>East Africa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>5785.06</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>North Africa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>4807.63</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>North America</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>57670.58</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>10103.87</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>East Asia (Oceania)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>4666.84</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>ASEAN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>31485.58</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>West Asia- GCC</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>27758.72</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Other West Asia</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>7706.23</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>NE Asia</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>42119.58</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>22077.79</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CARs Countries</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>658.52</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Other CIS Countries</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>3400.34</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>1162.24</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>India's Total Export</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>291808.48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>